--- a/testdata/PrimeQTestData.xlsx
+++ b/testdata/PrimeQTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{069F2E7C-4A6E-409E-972B-9970BE2068C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA35F834-1E87-411D-9717-47087FCA405E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateJournal" sheetId="33" r:id="rId1"/>
@@ -258,13 +258,13 @@
     <t>abc@def.com</t>
   </si>
   <si>
-    <t>TestBacth7</t>
-  </si>
-  <si>
-    <t>TestCustomer23</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>TestCustomer24</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>TestBacth8</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B077818-D3D4-4FEA-ABDC-CED159548026}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>34</v>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EB2438-418B-4C70-BA65-1B8F83B29CEE}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -972,13 +972,13 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>54</v>

--- a/testdata/PrimeQTestData.xlsx
+++ b/testdata/PrimeQTestData.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA35F834-1E87-411D-9717-47087FCA405E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F1BD396-A6A4-49BC-A725-6F13FB31AC2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateJournal" sheetId="33" r:id="rId1"/>
     <sheet name="CreateCustomer" sheetId="34" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -677,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B077818-D3D4-4FEA-ABDC-CED159548026}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -844,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EB2438-418B-4C70-BA65-1B8F83B29CEE}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1054,4 +1055,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3172911-B283-4A73-957C-355A47804529}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/PrimeQTestData.xlsx
+++ b/testdata/PrimeQTestData.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F1BD396-A6A4-49BC-A725-6F13FB31AC2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C99C56A-94A6-43DC-98BF-F45837F1CEB7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateJournal" sheetId="33" r:id="rId1"/>
     <sheet name="CreateCustomer" sheetId="34" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -1055,16 +1054,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3172911-B283-4A73-957C-355A47804529}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testdata/PrimeQTestData.xlsx
+++ b/testdata/PrimeQTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C99C56A-94A6-43DC-98BF-F45837F1CEB7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F8FF7E6-9783-45E7-AD54-E9878AD191AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,13 +258,13 @@
     <t>abc@def.com</t>
   </si>
   <si>
-    <t>TestCustomer24</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>TestBacth8</t>
+    <t>TestBacth12</t>
+  </si>
+  <si>
+    <t>TestCustomer30</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>34</v>
@@ -972,13 +972,13 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>54</v>

--- a/testdata/PrimeQTestData.xlsx
+++ b/testdata/PrimeQTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C99C56A-94A6-43DC-98BF-F45837F1CEB7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE080969-F985-4B2D-B68F-681345F24F53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateJournal" sheetId="33" r:id="rId1"/>
@@ -258,13 +258,13 @@
     <t>abc@def.com</t>
   </si>
   <si>
-    <t>TestCustomer24</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>TestBacth8</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>TestCustomer38</t>
+  </si>
+  <si>
+    <t>TestBacth20</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B077818-D3D4-4FEA-ABDC-CED159548026}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EB2438-418B-4C70-BA65-1B8F83B29CEE}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,13 +972,13 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>54</v>
